--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,57 +432,20 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>lisianthus</v>
-      </c>
-      <c r="C2" t="str">
-        <v>粉洋桔梗</v>
-      </c>
-      <c r="D2">
-        <v>800</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="F2" t="str">
-        <v>2</v>
-      </c>
-      <c r="G2" t="str">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <v>2</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>lisianthus</v>
-      </c>
-      <c r="C3" t="str">
-        <v>阳光粉洋桔梗</v>
-      </c>
-      <c r="D3" t="str">
-        <v>600</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0.6</v>
-      </c>
-      <c r="F3" t="str">
-        <v>2</v>
-      </c>
-      <c r="G3" t="str">
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -432,15 +432,69 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
+      <c r="B2" t="str">
+        <v>lisianthus</v>
+      </c>
+      <c r="C2" t="str">
+        <v>白洋桔梗</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>2</v>
       </c>
+      <c r="B3" t="str">
+        <v>Hydrangeas</v>
+      </c>
+      <c r="C3" t="str">
+        <v>绣球秋红</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F3" t="str">
+        <v>32</v>
+      </c>
+      <c r="G3" t="str">
+        <v>12</v>
+      </c>
+      <c r="H3" t="str">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>lisianthus</v>
+      </c>
+      <c r="C4" t="str">
+        <v>阳光粉洋桔梗</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>23</v>
+      </c>
+      <c r="H4" t="str">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -438,6 +438,9 @@
       <c r="C2" t="str">
         <v>白洋桔梗</v>
       </c>
+      <c r="D2">
+        <v>800</v>
+      </c>
       <c r="E2" t="str">
         <v>0.8</v>
       </c>
@@ -461,6 +464,9 @@
       <c r="C3" t="str">
         <v>绣球秋红</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3" t="str">
         <v>0.3</v>
       </c>
@@ -483,6 +489,9 @@
       </c>
       <c r="C4" t="str">
         <v>阳光粉洋桔梗</v>
+      </c>
+      <c r="D4">
+        <v>800</v>
       </c>
       <c r="E4" t="str">
         <v>0.8</v>

--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,83 +432,15 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>lisianthus</v>
-      </c>
-      <c r="C2" t="str">
-        <v>白洋桔梗</v>
-      </c>
-      <c r="D2">
-        <v>800</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="F2" t="str">
-        <v>2</v>
-      </c>
-      <c r="G2" t="str">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <v>3</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Hydrangeas</v>
-      </c>
-      <c r="C3" t="str">
-        <v>绣球秋红</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0.3</v>
-      </c>
-      <c r="F3" t="str">
-        <v>32</v>
-      </c>
-      <c r="G3" t="str">
-        <v>12</v>
-      </c>
-      <c r="H3" t="str">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>lisianthus</v>
-      </c>
-      <c r="C4" t="str">
-        <v>阳光粉洋桔梗</v>
-      </c>
-      <c r="D4">
-        <v>800</v>
-      </c>
-      <c r="E4" t="str">
-        <v>0.8</v>
-      </c>
-      <c r="F4" t="str">
-        <v>2</v>
-      </c>
-      <c r="G4" t="str">
-        <v>23</v>
-      </c>
-      <c r="H4" t="str">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,15 +432,25 @@
       <c r="A2" t="str">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
+      <c r="B2" t="str">
+        <v>lisianthus</v>
+      </c>
+      <c r="C2" t="str">
+        <v>粉洋桔梗</v>
+      </c>
+      <c r="D2" t="str">
+        <v>600</v>
+      </c>
+      <c r="E2" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="F2" t="str">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -436,16 +436,16 @@
         <v>lisianthus</v>
       </c>
       <c r="C2" t="str">
-        <v>粉洋桔梗</v>
-      </c>
-      <c r="D2" t="str">
-        <v>600</v>
+        <v>波浪白洋桔梗</v>
+      </c>
+      <c r="D2">
+        <v>800</v>
       </c>
       <c r="E2" t="str">
         <v>0.6</v>
       </c>
       <c r="F2" t="str">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +428,15 @@
       <c r="H1" t="str">
         <v>OutPrice</v>
       </c>
+      <c r="I1" t="str">
+        <v>Amount</v>
+      </c>
+      <c r="J1" t="str">
+        <v>TotalWeight</v>
+      </c>
+      <c r="K1" t="str">
+        <v>AdjustedPrice</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -438,19 +448,105 @@
       <c r="C2" t="str">
         <v>波浪白洋桔梗</v>
       </c>
-      <c r="D2">
-        <v>800</v>
+      <c r="D2" t="str">
+        <v>600</v>
       </c>
       <c r="E2" t="str">
         <v>0.6</v>
       </c>
       <c r="F2" t="str">
         <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <v>10</v>
+      </c>
+      <c r="H2" t="str">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>1.2</v>
+      </c>
+      <c r="K2" t="str">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>lisianthus</v>
+      </c>
+      <c r="C3" t="str">
+        <v>白洋桔梗</v>
+      </c>
+      <c r="D3">
+        <v>800</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="F3" t="str">
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H3" t="str">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="K3" t="str">
+        <v>22.17</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>TotalMiscFee</v>
+      </c>
+      <c r="B1" t="str">
+        <v>TotalNumber</v>
+      </c>
+      <c r="C1" t="str">
+        <v>TotalMiscFeePerItem</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="B2" t="str">
+        <v>023</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -470,7 +470,7 @@
         <v>1.2</v>
       </c>
       <c r="K2" t="str">
-        <v>12.17</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K3" t="str">
-        <v>22.17</v>
+        <v>22.61</v>
       </c>
     </row>
   </sheetData>
@@ -517,36 +517,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>CustomFee</v>
+      </c>
+      <c r="B1" t="str">
+        <v>ShippingFee</v>
+      </c>
+      <c r="C1" t="str">
+        <v>PackagingFee</v>
+      </c>
+      <c r="D1" t="str">
+        <v>CertificateFee</v>
+      </c>
+      <c r="E1" t="str">
+        <v>FumigationFee</v>
+      </c>
+      <c r="F1" t="str">
         <v>TotalMiscFee</v>
       </c>
-      <c r="B1" t="str">
+      <c r="G1" t="str">
         <v>TotalNumber</v>
       </c>
-      <c r="C1" t="str">
+      <c r="H1" t="str">
         <v>TotalMiscFeePerItem</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>50.00</v>
+        <v>10.00</v>
       </c>
       <c r="B2" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="C2" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="D2" t="str">
+        <v>10.00</v>
+      </c>
+      <c r="E2" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="F2" t="str">
+        <v>60.00</v>
+      </c>
+      <c r="G2" t="str">
         <v>023</v>
       </c>
-      <c r="C2" t="str">
-        <v>2.17</v>
+      <c r="H2" t="str">
+        <v>2.61</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,6 +437,9 @@
       <c r="K1" t="str">
         <v>AdjustedPrice</v>
       </c>
+      <c r="L1" t="str">
+        <v>TotalPrice</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -510,14 +513,14 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,9 +547,6 @@
       <c r="G1" t="str">
         <v>TotalNumber</v>
       </c>
-      <c r="H1" t="str">
-        <v>TotalMiscFeePerItem</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -570,13 +570,10 @@
       <c r="G2" t="str">
         <v>023</v>
       </c>
-      <c r="H2" t="str">
-        <v>2.61</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DateBase/orders/name001_2024-8-29.xlsx
+++ b/DateBase/orders/name001_2024-8-29.xlsx
@@ -472,8 +472,11 @@
       <c r="J2">
         <v>1.2</v>
       </c>
-      <c r="K2" t="str">
-        <v>12.61</v>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -507,8 +510,11 @@
       <c r="J3">
         <v>2.4000000000000004</v>
       </c>
-      <c r="K3" t="str">
-        <v>22.61</v>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
